--- a/Excel/Language/_Common.xlsx
+++ b/Excel/Language/_Common.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31860" windowHeight="13230"/>
+    <workbookView windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
   <si>
     <t>字段</t>
   </si>
@@ -86,6 +86,48 @@
   </si>
   <si>
     <t>[c,d]</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>草泥马2</t>
+  </si>
+  <si>
+    <t>english2</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>aa2</t>
+  </si>
+  <si>
+    <t>bb2</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>草泥马3</t>
+  </si>
+  <si>
+    <t>english3</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>aa3</t>
+  </si>
+  <si>
+    <t>[a,bu]</t>
+  </si>
+  <si>
+    <t>bb3</t>
+  </si>
+  <si>
+    <t>[c,dg]</t>
   </si>
 </sst>
 </file>
@@ -98,14 +140,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -578,133 +613,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -712,7 +747,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1065,8 +1100,8 @@
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1106,7 +1141,6 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3"/>
       <c r="D3" t="s">
         <v>9</v>
       </c>
@@ -1121,7 +1155,6 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4"/>
       <c r="D4">
         <v>2</v>
       </c>
@@ -1173,14 +1206,102 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" ht="12" customHeight="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="4:5">
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1190,14 +1311,102 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" ht="12" customHeight="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="4:5">
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Excel/Language/_Common.xlsx
+++ b/Excel/Language/_Common.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12435" activeTab="2"/>
+    <workbookView windowWidth="32265" windowHeight="15060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,14 +29,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>字段</t>
   </si>
   <si>
-    <t>描述</t>
-  </si>
-  <si>
     <t>类型</t>
   </si>
   <si>
@@ -53,9 +50,6 @@
   </si>
   <si>
     <t>a</t>
-  </si>
-  <si>
-    <t>xx</t>
   </si>
   <si>
     <t>草泥马</t>
@@ -1098,18 +1092,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12" customHeight="1" spans="1:5">
+    <row r="1" ht="12" customHeight="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1122,78 +1116,63 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="3:4">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="4:5">
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1206,15 +1185,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" ht="12" customHeight="1" spans="1:5">
+    <row r="1" ht="12" customHeight="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1227,78 +1206,63 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="3:4">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="4:5">
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1311,15 +1275,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" ht="12" customHeight="1" spans="1:5">
+    <row r="1" ht="12" customHeight="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1332,78 +1296,63 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="3:4">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="4:5">
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
